--- a/public/excel/readinessMap.xlsx
+++ b/public/excel/readinessMap.xlsx
@@ -12,117 +12,117 @@
     <sheet name="Сверки" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Сверки!$A$1:$M$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0346BCA5_B175_4D13_887C_D73DCA92E787_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_061ACB4E_612A_4F3E_94B6_CF39BCD74EBD_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_090C65C4_24BF_46E8_BF84_48A3BC3F02E1_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0B2183EE_CFC4_4D2B_AE11_2072144746D0_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0BB14B2C_C6A0_4920_80B9_B3F054902D66_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0DCBF660_7A13_474C_A34B_40E0D1E207EA_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_11AD3C54_A82A_444B_8BB0_1E4CCF5D0EE7_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_147D357F_7BE6_449D_B522_0886010457F6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_14B88312_E390_4BA8_9660_4006A170401E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_17273904_B293_4D90_9407_E56D079C3BE8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_1E5AC74E_15A0_4BCA_9F0D_9B53A60DBAE1_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_207B540B_5FC1_4C88_A8EC_DD9010BEA503_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_208D0C5A_5F63_4DD5_99BE_0172E0998833_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_22C38152_9FB7_4703_8EFC_7A2423EC4961_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_24F98F4D_FF73_4018_84C5_CBEAAB1DFA59_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_29370862_D448_40C3_9DC2_16A63BDC0F9A_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_29CE4207_47FB_40E8_A3EC_0A9268EB6DC4_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_2DAB3938_2923_4717_8EAB_A4E5B8342822_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_352D0C52_886A_4FA8_B958_C73FCDED3D8E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0346BCA5_B175_4D13_887C_D73DCA92E787_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_061ACB4E_612A_4F3E_94B6_CF39BCD74EBD_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_090C65C4_24BF_46E8_BF84_48A3BC3F02E1_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0B2183EE_CFC4_4D2B_AE11_2072144746D0_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0BB14B2C_C6A0_4920_80B9_B3F054902D66_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0DCBF660_7A13_474C_A34B_40E0D1E207EA_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_11AD3C54_A82A_444B_8BB0_1E4CCF5D0EE7_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_147D357F_7BE6_449D_B522_0886010457F6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_14B88312_E390_4BA8_9660_4006A170401E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_17273904_B293_4D90_9407_E56D079C3BE8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_1E5AC74E_15A0_4BCA_9F0D_9B53A60DBAE1_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_207B540B_5FC1_4C88_A8EC_DD9010BEA503_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_208D0C5A_5F63_4DD5_99BE_0172E0998833_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_22C38152_9FB7_4703_8EFC_7A2423EC4961_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_24F98F4D_FF73_4018_84C5_CBEAAB1DFA59_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_29370862_D448_40C3_9DC2_16A63BDC0F9A_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_29CE4207_47FB_40E8_A3EC_0A9268EB6DC4_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_2DAB3938_2923_4717_8EAB_A4E5B8342822_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_352D0C52_886A_4FA8_B958_C73FCDED3D8E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_3E9C076B_CBC1_45EF_A930_313200B20DB9_.wvu.FilterData" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_475EBC02_2BE2_495D_9928_41BC070B80C3_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_49B218D9_91F4_4DD9_A79B_7456537AA425_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_4B8F43FD_6B06_4475_964E_FE6D9D8B56F0_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_4C7FDB2B_7CC7_4FDB_8EBE_D67B1D3E95E2_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_4D15348D_5D9F_42CA_B1FB_94D649511AF0_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_50B5193C_4EB4_4097_A645_0BB294B1A724_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_556C983B_DBAA_41A6_BD29_0ACC9E6B04D1_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_55F9A013_33BE_486B_96B1_FC1C2DF83E21_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_568662B3_0F32_452A_BA8A_86E28FE9270B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$X$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_580D0090_FD31_4125_9227_BE75B224C6D6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_61A13612_B1C7_44E4_B8E1_D619F6E860EA_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_628DC071_11FE_4913_82AD_D476FF51EC0B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_63E5315F_3F57_45D6_98FC_6374DA9D4BA4_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_64370389_030D_4092_B33B_B1177B815FE8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6525C8E9_BFCD_4B72_8428_95555DCE420E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_66EAB00C_65A6_4D75_A346_2C585263446A_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6713E5A5_F42C_4070_B548_3B747E4F80A2_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_69BA5E49_F241_4B39_8B2D_4CF2291572CD_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6A0818E3_5076_495D_AFA1_836DCB237A62_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6C842B64_0FB4_4DE0_8595_304247D0E1AF_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6EB7D9BC_DC96_4C7F_B652_9ADC846D6264_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_71CFEFF6_1743_4517_9C6B_3D818AE9C883_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_73F63C98_F861_40D4_A215_48FDCD33439B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_475EBC02_2BE2_495D_9928_41BC070B80C3_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_49B218D9_91F4_4DD9_A79B_7456537AA425_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_4B8F43FD_6B06_4475_964E_FE6D9D8B56F0_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_4C7FDB2B_7CC7_4FDB_8EBE_D67B1D3E95E2_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_4D15348D_5D9F_42CA_B1FB_94D649511AF0_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_50B5193C_4EB4_4097_A645_0BB294B1A724_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_556C983B_DBAA_41A6_BD29_0ACC9E6B04D1_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_55F9A013_33BE_486B_96B1_FC1C2DF83E21_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_568662B3_0F32_452A_BA8A_86E28FE9270B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_580D0090_FD31_4125_9227_BE75B224C6D6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_61A13612_B1C7_44E4_B8E1_D619F6E860EA_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_628DC071_11FE_4913_82AD_D476FF51EC0B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_63E5315F_3F57_45D6_98FC_6374DA9D4BA4_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_64370389_030D_4092_B33B_B1177B815FE8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6525C8E9_BFCD_4B72_8428_95555DCE420E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_66EAB00C_65A6_4D75_A346_2C585263446A_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6713E5A5_F42C_4070_B548_3B747E4F80A2_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_69BA5E49_F241_4B39_8B2D_4CF2291572CD_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6A0818E3_5076_495D_AFA1_836DCB237A62_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6C842B64_0FB4_4DE0_8595_304247D0E1AF_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6EB7D9BC_DC96_4C7F_B652_9ADC846D6264_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_71CFEFF6_1743_4517_9C6B_3D818AE9C883_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_73F63C98_F861_40D4_A215_48FDCD33439B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_75772143_B78F_4D58_9063_EE121BCA56FE_.wvu.FilterData" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_758BF1A7_EDEE_49E8_9E97_7FFAF165AE4F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_7664B929_8C2C_418E_B247_2A132DFEF754_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_793B310E_B986_4A01_AD49_764E6C30261B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_8528A41B_65BF_469E_AA2A_AC87AF6776AE_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_89C28C6D_BA4B_4C3F_AB30_5A0BDFC437DB_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$T$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_758BF1A7_EDEE_49E8_9E97_7FFAF165AE4F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_7664B929_8C2C_418E_B247_2A132DFEF754_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_793B310E_B986_4A01_AD49_764E6C30261B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_8528A41B_65BF_469E_AA2A_AC87AF6776AE_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_89C28C6D_BA4B_4C3F_AB30_5A0BDFC437DB_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$R$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_90D0AC51_DA76_4698_A08E_967B11124F0B_.wvu.FilterData" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_935946F9_E992_4939_95DC_0BB25A9D51EC_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9362496D_6BC9_4F1D_8099_416F181C1B51_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$X$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_941D30DD_37FA_4077_AD4A_4035AA0FB587_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_96B769B1_32F8_41D5_B56E_0217BD3C5FC6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$X$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9776FBF9_5863_424D_B1C9_394DADF68A55_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_97C64322_9802_4681_B4F6_86AD8126D4C7_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9D99D1EB_E3BF_4BFB_AE11_079B7638D26F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9EACC501_4F7A_4995_83C1_EF29CEAC03A2_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A1921CB2_28D8_423D_878F_536F61FE811F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A2FD6A00_89DF_4F46_9287_E896E7CA9CD6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$X$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A4663326_BEF3_4DC3_B0BB_B3524EDA2FFF_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A84A6F32_8B6D_4177_9B69_79B89AA061C8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A94A1BCC_66F0_4948_BEBA_DD737C4F208D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AA682BAA_6FEA_4DB1_A7DE_FB4829AE0E74_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AE3A75DD_EA29_44B1_A423_4919C2823755_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AF66A252_E7B8_420D_8CFD_61491239F3DD_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B09C71C6_7E49_4594_B93D_30B85191442B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B36B4583_207B_49A7_832E_0338FFE2F4C5_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B3B263E6_62A0_40FA_B684_FF3DF5C44A30_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B4DA0020_0A7D_48DE_9C88_90C521FFC30C_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B683867B_3B48_4D6F_9EA9_052ACAE6C475_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B71AEA7D_DEC1_43C9_9DF2_928453EFF7B8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B8A8EF14_C8EB_4447_B73F_D2FAC3E5DA0A_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B9E2237D_895A_4A9A_910E_7CC08DA26C20_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_BC01216A_3E79_43E5_A63F_F5B1D7C0F71C_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_BD22F38B_1771_4A5A_9712_0E709EE05A32_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_BDB05E6A_FD43_46B4_B2E6_CDCF77019A93_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_BDCA31BB_2E2B_432C_9516_4AD0D8C73B64_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C14227B2_736D_4A3D_8C76_BB2FD32DF21D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C1583340_D48B_4C94_BDDC_95A42EFB4227_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C23A10CA_61AB_4980_9FD8_BC403487BCB4_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C2A95D58_FE7E_49D8_A018_58A7B81373B9_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C4235601_3F72_4C6D_B251_CDE76DCD0FE7_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_935946F9_E992_4939_95DC_0BB25A9D51EC_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9362496D_6BC9_4F1D_8099_416F181C1B51_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_941D30DD_37FA_4077_AD4A_4035AA0FB587_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_96B769B1_32F8_41D5_B56E_0217BD3C5FC6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9776FBF9_5863_424D_B1C9_394DADF68A55_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_97C64322_9802_4681_B4F6_86AD8126D4C7_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9D99D1EB_E3BF_4BFB_AE11_079B7638D26F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9EACC501_4F7A_4995_83C1_EF29CEAC03A2_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A1921CB2_28D8_423D_878F_536F61FE811F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A2FD6A00_89DF_4F46_9287_E896E7CA9CD6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A4663326_BEF3_4DC3_B0BB_B3524EDA2FFF_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A84A6F32_8B6D_4177_9B69_79B89AA061C8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A94A1BCC_66F0_4948_BEBA_DD737C4F208D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AA682BAA_6FEA_4DB1_A7DE_FB4829AE0E74_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AE3A75DD_EA29_44B1_A423_4919C2823755_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AF66A252_E7B8_420D_8CFD_61491239F3DD_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B09C71C6_7E49_4594_B93D_30B85191442B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B36B4583_207B_49A7_832E_0338FFE2F4C5_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B3B263E6_62A0_40FA_B684_FF3DF5C44A30_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B4DA0020_0A7D_48DE_9C88_90C521FFC30C_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B683867B_3B48_4D6F_9EA9_052ACAE6C475_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B71AEA7D_DEC1_43C9_9DF2_928453EFF7B8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B8A8EF14_C8EB_4447_B73F_D2FAC3E5DA0A_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B9E2237D_895A_4A9A_910E_7CC08DA26C20_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_BC01216A_3E79_43E5_A63F_F5B1D7C0F71C_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_BD22F38B_1771_4A5A_9712_0E709EE05A32_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_BDB05E6A_FD43_46B4_B2E6_CDCF77019A93_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_BDCA31BB_2E2B_432C_9516_4AD0D8C73B64_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C14227B2_736D_4A3D_8C76_BB2FD32DF21D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C1583340_D48B_4C94_BDDC_95A42EFB4227_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C23A10CA_61AB_4980_9FD8_BC403487BCB4_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C2A95D58_FE7E_49D8_A018_58A7B81373B9_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C4235601_3F72_4C6D_B251_CDE76DCD0FE7_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_C48C75C2_9F21_4230_90D0_06D514FD1745_.wvu.FilterData" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C7F8CB35_906C_4AAB_9BAE_F61BC378A18F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C9A3C411_9C87_4D76_82FF_18F5CABEDC5D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_CA2D55A5_0FB4_4A7F_8F5E_EA55BD06C361_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_CB5BFEA6_7D16_4D20_9724_6C2E603E888B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_CDE348C3_F605_4271_950C_B5BA7DFD517B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$T$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D463594F_9416_42BB_A0EC_7AE28E0A2641_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D4FF745C_F1FE_40DF_8724_4E0B79EC9814_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$X$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D6AB068F_682D_4EA0_BC56_7AAB2DE2E3C6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D7E76173_65E0_4D7E_A8EB_82DFAB1734EC_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_DE8EFA15_92E2_44A7_8031_0236F10D5590_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$X$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_DF577096_2FDD_46FD_AAD7_EF533FA70816_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_DFDDD5EA_589A_44B6_8246_62FED39FC67B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E34E9297_9BDC_4941_9D53_14A4990D3D6E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E4264B78_1091_4984_9207_7DADBB776ED8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$B$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E57881A8_0D84_4F7B_87B1_E7F726275DE9_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E5AE1AF4_AA65_4D3B_8839_BC18F0A5A7CE_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E67DB7C0_6511_432F_AD00_B500B4C0EB44_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E99FDCC4_6529_4843_854F_B20C17EF5D22_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E9AC65B7_9335_4B70_9CF5_D8971E692BDC_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_EDE9F2F2_D4CF_4C35_8032_5518B9791E4D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$X$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F31B60E6_E47C_465B_A97B_BD1F1961EA70_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$X$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F3A65DAD_4561_4316_98D4_275DF7CCF98B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F959C4DA_2380_4EDD_8575_F29975D7BE99_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F9F3AD35_840C_4D5F_8521_98D49A862FA6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_FD9155FD_7C35_4C34_815E_F77841DCF018_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$S$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C7F8CB35_906C_4AAB_9BAE_F61BC378A18F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C9A3C411_9C87_4D76_82FF_18F5CABEDC5D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_CA2D55A5_0FB4_4A7F_8F5E_EA55BD06C361_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_CB5BFEA6_7D16_4D20_9724_6C2E603E888B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_CDE348C3_F605_4271_950C_B5BA7DFD517B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$R$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D463594F_9416_42BB_A0EC_7AE28E0A2641_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D4FF745C_F1FE_40DF_8724_4E0B79EC9814_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D6AB068F_682D_4EA0_BC56_7AAB2DE2E3C6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D7E76173_65E0_4D7E_A8EB_82DFAB1734EC_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_DE8EFA15_92E2_44A7_8031_0236F10D5590_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_DF577096_2FDD_46FD_AAD7_EF533FA70816_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_DFDDD5EA_589A_44B6_8246_62FED39FC67B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E34E9297_9BDC_4941_9D53_14A4990D3D6E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E4264B78_1091_4984_9207_7DADBB776ED8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$B$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E57881A8_0D84_4F7B_87B1_E7F726275DE9_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E5AE1AF4_AA65_4D3B_8839_BC18F0A5A7CE_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E67DB7C0_6511_432F_AD00_B500B4C0EB44_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E99FDCC4_6529_4843_854F_B20C17EF5D22_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E9AC65B7_9335_4B70_9CF5_D8971E692BDC_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_EDE9F2F2_D4CF_4C35_8032_5518B9791E4D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F31B60E6_E47C_465B_A97B_BD1F1961EA70_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F3A65DAD_4561_4316_98D4_275DF7CCF98B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F959C4DA_2380_4EDD_8575_F29975D7BE99_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F9F3AD35_840C_4D5F_8521_98D49A862FA6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_FD9155FD_7C35_4C34_815E_F77841DCF018_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="147">
   <si>
     <t xml:space="preserve">№ п/п</t>
   </si>
@@ -185,12 +185,6 @@
   </si>
   <si>
     <t xml:space="preserve">Самая поздняя дата окончания рем. работ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Средняя дата окончания рем. работ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Примечания / комментарии</t>
   </si>
   <si>
     <t xml:space="preserve">Куратор</t>
@@ -994,17 +988,17 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30"/>
@@ -1018,10 +1012,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="20.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="26.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="46.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="20" style="0" width="69.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="26.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="18" style="0" width="69.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,20 +1070,14 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1">
+  <autoFilter ref="A1:Q1">
     <filterColumn colId="13">
       <filters>
         <filter val="73,21%"/>
@@ -1133,7 +1121,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30"/>
@@ -1155,16 +1143,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>9</v>
@@ -1173,10 +1161,10 @@
         <v>12</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1184,13 +1172,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="E2" s="8" t="n">
         <v>0.8</v>
@@ -1238,13 +1226,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>0.94</v>
@@ -1292,13 +1280,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>1</v>
@@ -1346,13 +1334,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="E5" s="8" t="n">
         <v>0.32</v>
@@ -1400,13 +1388,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="8" t="n">
         <v>0.55</v>
@@ -1454,13 +1442,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="E7" s="8" t="n">
         <v>1</v>
@@ -1508,13 +1496,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="8" t="n">
         <v>0.7</v>
@@ -1562,13 +1550,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" s="8" t="n">
         <v>0.6</v>
@@ -1616,13 +1604,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" s="8" t="n">
         <v>0.52</v>
@@ -1670,13 +1658,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="E11" s="8" t="n">
         <v>0.98</v>
@@ -1724,13 +1712,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" s="8" t="n">
         <v>0.75</v>
@@ -1778,13 +1766,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="E13" s="8" t="n">
         <v>0.3375</v>
@@ -1832,13 +1820,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E14" s="8" t="n">
         <v>1</v>
@@ -1886,13 +1874,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" s="8" t="n">
         <v>0.6667</v>
@@ -1940,13 +1928,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E16" s="8" t="n">
         <v>0.425</v>
@@ -1994,13 +1982,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="E17" s="8" t="n">
         <v>0.995</v>
@@ -2048,13 +2036,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E18" s="8" t="n">
         <v>0.95</v>
@@ -2102,13 +2090,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="E19" s="8" t="n">
         <v>1</v>
@@ -2156,13 +2144,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E20" s="8" t="n">
         <v>0.65</v>
@@ -2210,13 +2198,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="E21" s="8" t="n">
         <v>0.75</v>
@@ -2264,13 +2252,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="E22" s="8" t="n">
         <v>0.49</v>
@@ -2318,13 +2306,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E23" s="8" t="n">
         <v>1</v>
@@ -2372,13 +2360,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E24" s="8" t="n">
         <v>0.975</v>
@@ -2426,13 +2414,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E25" s="8" t="n">
         <v>0.92</v>
@@ -2441,10 +2429,10 @@
         <v>0.95</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J25" s="8" t="n">
         <v>0.975</v>
@@ -2480,13 +2468,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E26" s="8" t="n">
         <v>0.39</v>
@@ -2534,13 +2522,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E27" s="8" t="n">
         <v>0.775</v>
@@ -2588,13 +2576,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="E28" s="8" t="n">
         <v>1</v>
@@ -2642,13 +2630,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E29" s="8" t="n">
         <v>1</v>
@@ -2696,13 +2684,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E30" s="8" t="n">
         <v>0.99</v>
@@ -2750,13 +2738,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E31" s="8" t="n">
         <v>1</v>
@@ -2804,13 +2792,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="E32" s="8" t="n">
         <v>0.9</v>
@@ -2858,13 +2846,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E33" s="8" t="n">
         <v>1</v>
@@ -2912,13 +2900,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E34" s="8" t="n">
         <v>0.95</v>
@@ -2966,13 +2954,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E35" s="8" t="n">
         <v>0.9</v>
@@ -3020,13 +3008,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="E36" s="8" t="n">
         <v>1</v>
@@ -3074,13 +3062,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E37" s="8" t="n">
         <v>0.99</v>
@@ -3128,13 +3116,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E38" s="8" t="n">
         <v>0.94</v>
@@ -3182,13 +3170,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="D39" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E39" s="8" t="n">
         <v>1</v>
@@ -3236,13 +3224,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E40" s="8" t="n">
         <v>0.34</v>
@@ -3290,13 +3278,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E41" s="8" t="n">
         <v>0.93</v>
@@ -3344,13 +3332,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E42" s="8" t="n">
         <v>1</v>
@@ -3398,13 +3386,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E43" s="8" t="n">
         <v>0.68</v>
@@ -3452,13 +3440,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="E44" s="8" t="n">
         <v>0.875</v>
@@ -3506,13 +3494,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="E45" s="8" t="n">
         <v>0.94</v>
@@ -3560,13 +3548,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E46" s="8" t="n">
         <v>0.975</v>
@@ -3614,13 +3602,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E47" s="8" t="n">
         <v>1</v>
@@ -3668,13 +3656,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E48" s="8" t="n">
         <v>0.775</v>
@@ -3722,13 +3710,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E49" s="8" t="n">
         <v>0.98</v>
@@ -3776,13 +3764,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E50" s="8" t="n">
         <v>0.75</v>
@@ -3830,13 +3818,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="E51" s="8" t="n">
         <v>0.72</v>
@@ -3884,13 +3872,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E52" s="8" t="n">
         <v>0.89</v>
@@ -3938,13 +3926,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="21" t="s">
         <v>119</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="E53" s="8" t="n">
         <v>0.84</v>
@@ -3992,13 +3980,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E54" s="8" t="n">
         <v>1</v>
@@ -4046,13 +4034,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="E55" s="8" t="n">
         <v>0.72</v>
@@ -4100,13 +4088,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E56" s="8" t="n">
         <v>0.8667</v>
@@ -4154,13 +4142,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E57" s="8" t="n">
         <v>0.9</v>
@@ -4208,13 +4196,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E58" s="8" t="n">
         <v>0.88</v>
@@ -4262,13 +4250,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E59" s="8" t="n">
         <v>0.99</v>
@@ -4277,10 +4265,10 @@
         <v>0.98</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J59" s="8" t="n">
         <v>1</v>
@@ -4316,13 +4304,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="E60" s="8" t="n">
         <v>1</v>
@@ -4370,13 +4358,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E61" s="8" t="n">
         <v>0.75</v>
@@ -4424,13 +4412,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="E62" s="8" t="n">
         <v>0.66</v>
@@ -4478,13 +4466,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="E63" s="8" t="n">
         <v>0.9</v>
@@ -4532,13 +4520,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E64" s="8" t="n">
         <v>0.72</v>
@@ -4586,13 +4574,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" s="21" t="s">
         <v>138</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>140</v>
       </c>
       <c r="E65" s="8" t="n">
         <v>1</v>
@@ -4640,13 +4628,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E66" s="8" t="n">
         <v>0.875</v>
@@ -4694,13 +4682,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="E67" s="8" t="n">
         <v>0.9875</v>
@@ -4748,13 +4736,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E68" s="8" t="n">
         <v>1</v>
@@ -4802,13 +4790,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E69" s="8" t="n">
         <v>1</v>
@@ -4856,13 +4844,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E70" s="8" t="n">
         <v>0.9875</v>
@@ -4910,13 +4898,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="E71" s="8" t="n">
         <v>1</v>

--- a/public/excel/readinessMap.xlsx
+++ b/public/excel/readinessMap.xlsx
@@ -12,117 +12,117 @@
     <sheet name="Сверки" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Сверки!$A$1:$M$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0346BCA5_B175_4D13_887C_D73DCA92E787_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_061ACB4E_612A_4F3E_94B6_CF39BCD74EBD_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_090C65C4_24BF_46E8_BF84_48A3BC3F02E1_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0B2183EE_CFC4_4D2B_AE11_2072144746D0_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0BB14B2C_C6A0_4920_80B9_B3F054902D66_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0DCBF660_7A13_474C_A34B_40E0D1E207EA_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_11AD3C54_A82A_444B_8BB0_1E4CCF5D0EE7_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_147D357F_7BE6_449D_B522_0886010457F6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_14B88312_E390_4BA8_9660_4006A170401E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_17273904_B293_4D90_9407_E56D079C3BE8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_1E5AC74E_15A0_4BCA_9F0D_9B53A60DBAE1_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_207B540B_5FC1_4C88_A8EC_DD9010BEA503_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_208D0C5A_5F63_4DD5_99BE_0172E0998833_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_22C38152_9FB7_4703_8EFC_7A2423EC4961_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_24F98F4D_FF73_4018_84C5_CBEAAB1DFA59_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_29370862_D448_40C3_9DC2_16A63BDC0F9A_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_29CE4207_47FB_40E8_A3EC_0A9268EB6DC4_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_2DAB3938_2923_4717_8EAB_A4E5B8342822_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_352D0C52_886A_4FA8_B958_C73FCDED3D8E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0346BCA5_B175_4D13_887C_D73DCA92E787_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_061ACB4E_612A_4F3E_94B6_CF39BCD74EBD_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_090C65C4_24BF_46E8_BF84_48A3BC3F02E1_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0B2183EE_CFC4_4D2B_AE11_2072144746D0_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0BB14B2C_C6A0_4920_80B9_B3F054902D66_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0DCBF660_7A13_474C_A34B_40E0D1E207EA_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_11AD3C54_A82A_444B_8BB0_1E4CCF5D0EE7_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_147D357F_7BE6_449D_B522_0886010457F6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_14B88312_E390_4BA8_9660_4006A170401E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_17273904_B293_4D90_9407_E56D079C3BE8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_1E5AC74E_15A0_4BCA_9F0D_9B53A60DBAE1_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_207B540B_5FC1_4C88_A8EC_DD9010BEA503_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_208D0C5A_5F63_4DD5_99BE_0172E0998833_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_22C38152_9FB7_4703_8EFC_7A2423EC4961_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_24F98F4D_FF73_4018_84C5_CBEAAB1DFA59_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_29370862_D448_40C3_9DC2_16A63BDC0F9A_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_29CE4207_47FB_40E8_A3EC_0A9268EB6DC4_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_2DAB3938_2923_4717_8EAB_A4E5B8342822_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_352D0C52_886A_4FA8_B958_C73FCDED3D8E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_3E9C076B_CBC1_45EF_A930_313200B20DB9_.wvu.FilterData" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_475EBC02_2BE2_495D_9928_41BC070B80C3_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_49B218D9_91F4_4DD9_A79B_7456537AA425_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_4B8F43FD_6B06_4475_964E_FE6D9D8B56F0_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_4C7FDB2B_7CC7_4FDB_8EBE_D67B1D3E95E2_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_4D15348D_5D9F_42CA_B1FB_94D649511AF0_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_50B5193C_4EB4_4097_A645_0BB294B1A724_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_556C983B_DBAA_41A6_BD29_0ACC9E6B04D1_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_55F9A013_33BE_486B_96B1_FC1C2DF83E21_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_568662B3_0F32_452A_BA8A_86E28FE9270B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_580D0090_FD31_4125_9227_BE75B224C6D6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_61A13612_B1C7_44E4_B8E1_D619F6E860EA_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_628DC071_11FE_4913_82AD_D476FF51EC0B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_63E5315F_3F57_45D6_98FC_6374DA9D4BA4_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_64370389_030D_4092_B33B_B1177B815FE8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6525C8E9_BFCD_4B72_8428_95555DCE420E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_66EAB00C_65A6_4D75_A346_2C585263446A_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6713E5A5_F42C_4070_B548_3B747E4F80A2_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_69BA5E49_F241_4B39_8B2D_4CF2291572CD_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6A0818E3_5076_495D_AFA1_836DCB237A62_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6C842B64_0FB4_4DE0_8595_304247D0E1AF_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6EB7D9BC_DC96_4C7F_B652_9ADC846D6264_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_71CFEFF6_1743_4517_9C6B_3D818AE9C883_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_73F63C98_F861_40D4_A215_48FDCD33439B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_475EBC02_2BE2_495D_9928_41BC070B80C3_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_49B218D9_91F4_4DD9_A79B_7456537AA425_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_4B8F43FD_6B06_4475_964E_FE6D9D8B56F0_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_4C7FDB2B_7CC7_4FDB_8EBE_D67B1D3E95E2_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_4D15348D_5D9F_42CA_B1FB_94D649511AF0_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_50B5193C_4EB4_4097_A645_0BB294B1A724_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_556C983B_DBAA_41A6_BD29_0ACC9E6B04D1_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_55F9A013_33BE_486B_96B1_FC1C2DF83E21_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_568662B3_0F32_452A_BA8A_86E28FE9270B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_580D0090_FD31_4125_9227_BE75B224C6D6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_61A13612_B1C7_44E4_B8E1_D619F6E860EA_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_628DC071_11FE_4913_82AD_D476FF51EC0B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_63E5315F_3F57_45D6_98FC_6374DA9D4BA4_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_64370389_030D_4092_B33B_B1177B815FE8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6525C8E9_BFCD_4B72_8428_95555DCE420E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_66EAB00C_65A6_4D75_A346_2C585263446A_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6713E5A5_F42C_4070_B548_3B747E4F80A2_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_69BA5E49_F241_4B39_8B2D_4CF2291572CD_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6A0818E3_5076_495D_AFA1_836DCB237A62_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6C842B64_0FB4_4DE0_8595_304247D0E1AF_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6EB7D9BC_DC96_4C7F_B652_9ADC846D6264_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_71CFEFF6_1743_4517_9C6B_3D818AE9C883_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_73F63C98_F861_40D4_A215_48FDCD33439B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_75772143_B78F_4D58_9063_EE121BCA56FE_.wvu.FilterData" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_758BF1A7_EDEE_49E8_9E97_7FFAF165AE4F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_7664B929_8C2C_418E_B247_2A132DFEF754_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_793B310E_B986_4A01_AD49_764E6C30261B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_8528A41B_65BF_469E_AA2A_AC87AF6776AE_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_89C28C6D_BA4B_4C3F_AB30_5A0BDFC437DB_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$R$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_758BF1A7_EDEE_49E8_9E97_7FFAF165AE4F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_7664B929_8C2C_418E_B247_2A132DFEF754_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_793B310E_B986_4A01_AD49_764E6C30261B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_8528A41B_65BF_469E_AA2A_AC87AF6776AE_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_89C28C6D_BA4B_4C3F_AB30_5A0BDFC437DB_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_90D0AC51_DA76_4698_A08E_967B11124F0B_.wvu.FilterData" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_935946F9_E992_4939_95DC_0BB25A9D51EC_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9362496D_6BC9_4F1D_8099_416F181C1B51_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_941D30DD_37FA_4077_AD4A_4035AA0FB587_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_96B769B1_32F8_41D5_B56E_0217BD3C5FC6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9776FBF9_5863_424D_B1C9_394DADF68A55_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_97C64322_9802_4681_B4F6_86AD8126D4C7_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9D99D1EB_E3BF_4BFB_AE11_079B7638D26F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9EACC501_4F7A_4995_83C1_EF29CEAC03A2_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A1921CB2_28D8_423D_878F_536F61FE811F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A2FD6A00_89DF_4F46_9287_E896E7CA9CD6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A4663326_BEF3_4DC3_B0BB_B3524EDA2FFF_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A84A6F32_8B6D_4177_9B69_79B89AA061C8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A94A1BCC_66F0_4948_BEBA_DD737C4F208D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AA682BAA_6FEA_4DB1_A7DE_FB4829AE0E74_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AE3A75DD_EA29_44B1_A423_4919C2823755_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AF66A252_E7B8_420D_8CFD_61491239F3DD_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B09C71C6_7E49_4594_B93D_30B85191442B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B36B4583_207B_49A7_832E_0338FFE2F4C5_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B3B263E6_62A0_40FA_B684_FF3DF5C44A30_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B4DA0020_0A7D_48DE_9C88_90C521FFC30C_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B683867B_3B48_4D6F_9EA9_052ACAE6C475_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B71AEA7D_DEC1_43C9_9DF2_928453EFF7B8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B8A8EF14_C8EB_4447_B73F_D2FAC3E5DA0A_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B9E2237D_895A_4A9A_910E_7CC08DA26C20_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_BC01216A_3E79_43E5_A63F_F5B1D7C0F71C_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_BD22F38B_1771_4A5A_9712_0E709EE05A32_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_BDB05E6A_FD43_46B4_B2E6_CDCF77019A93_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_BDCA31BB_2E2B_432C_9516_4AD0D8C73B64_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C14227B2_736D_4A3D_8C76_BB2FD32DF21D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C1583340_D48B_4C94_BDDC_95A42EFB4227_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C23A10CA_61AB_4980_9FD8_BC403487BCB4_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C2A95D58_FE7E_49D8_A018_58A7B81373B9_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C4235601_3F72_4C6D_B251_CDE76DCD0FE7_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_935946F9_E992_4939_95DC_0BB25A9D51EC_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9362496D_6BC9_4F1D_8099_416F181C1B51_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_941D30DD_37FA_4077_AD4A_4035AA0FB587_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_96B769B1_32F8_41D5_B56E_0217BD3C5FC6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9776FBF9_5863_424D_B1C9_394DADF68A55_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_97C64322_9802_4681_B4F6_86AD8126D4C7_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9D99D1EB_E3BF_4BFB_AE11_079B7638D26F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9EACC501_4F7A_4995_83C1_EF29CEAC03A2_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A1921CB2_28D8_423D_878F_536F61FE811F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A2FD6A00_89DF_4F46_9287_E896E7CA9CD6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A4663326_BEF3_4DC3_B0BB_B3524EDA2FFF_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A84A6F32_8B6D_4177_9B69_79B89AA061C8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A94A1BCC_66F0_4948_BEBA_DD737C4F208D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AA682BAA_6FEA_4DB1_A7DE_FB4829AE0E74_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AE3A75DD_EA29_44B1_A423_4919C2823755_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AF66A252_E7B8_420D_8CFD_61491239F3DD_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B09C71C6_7E49_4594_B93D_30B85191442B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B36B4583_207B_49A7_832E_0338FFE2F4C5_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B3B263E6_62A0_40FA_B684_FF3DF5C44A30_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B4DA0020_0A7D_48DE_9C88_90C521FFC30C_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B683867B_3B48_4D6F_9EA9_052ACAE6C475_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B71AEA7D_DEC1_43C9_9DF2_928453EFF7B8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B8A8EF14_C8EB_4447_B73F_D2FAC3E5DA0A_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B9E2237D_895A_4A9A_910E_7CC08DA26C20_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_BC01216A_3E79_43E5_A63F_F5B1D7C0F71C_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_BD22F38B_1771_4A5A_9712_0E709EE05A32_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_BDB05E6A_FD43_46B4_B2E6_CDCF77019A93_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_BDCA31BB_2E2B_432C_9516_4AD0D8C73B64_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C14227B2_736D_4A3D_8C76_BB2FD32DF21D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C1583340_D48B_4C94_BDDC_95A42EFB4227_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C23A10CA_61AB_4980_9FD8_BC403487BCB4_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C2A95D58_FE7E_49D8_A018_58A7B81373B9_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C4235601_3F72_4C6D_B251_CDE76DCD0FE7_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_C48C75C2_9F21_4230_90D0_06D514FD1745_.wvu.FilterData" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C7F8CB35_906C_4AAB_9BAE_F61BC378A18F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C9A3C411_9C87_4D76_82FF_18F5CABEDC5D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_CA2D55A5_0FB4_4A7F_8F5E_EA55BD06C361_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_CB5BFEA6_7D16_4D20_9724_6C2E603E888B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_CDE348C3_F605_4271_950C_B5BA7DFD517B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$R$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D463594F_9416_42BB_A0EC_7AE28E0A2641_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D4FF745C_F1FE_40DF_8724_4E0B79EC9814_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D6AB068F_682D_4EA0_BC56_7AAB2DE2E3C6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D7E76173_65E0_4D7E_A8EB_82DFAB1734EC_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_DE8EFA15_92E2_44A7_8031_0236F10D5590_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_DF577096_2FDD_46FD_AAD7_EF533FA70816_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_DFDDD5EA_589A_44B6_8246_62FED39FC67B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E34E9297_9BDC_4941_9D53_14A4990D3D6E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E4264B78_1091_4984_9207_7DADBB776ED8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$B$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E57881A8_0D84_4F7B_87B1_E7F726275DE9_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E5AE1AF4_AA65_4D3B_8839_BC18F0A5A7CE_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E67DB7C0_6511_432F_AD00_B500B4C0EB44_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E99FDCC4_6529_4843_854F_B20C17EF5D22_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E9AC65B7_9335_4B70_9CF5_D8971E692BDC_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_EDE9F2F2_D4CF_4C35_8032_5518B9791E4D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F31B60E6_E47C_465B_A97B_BD1F1961EA70_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F3A65DAD_4561_4316_98D4_275DF7CCF98B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F959C4DA_2380_4EDD_8575_F29975D7BE99_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F9F3AD35_840C_4D5F_8521_98D49A862FA6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_FD9155FD_7C35_4C34_815E_F77841DCF018_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C7F8CB35_906C_4AAB_9BAE_F61BC378A18F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C9A3C411_9C87_4D76_82FF_18F5CABEDC5D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_CA2D55A5_0FB4_4A7F_8F5E_EA55BD06C361_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_CB5BFEA6_7D16_4D20_9724_6C2E603E888B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_CDE348C3_F605_4271_950C_B5BA7DFD517B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D463594F_9416_42BB_A0EC_7AE28E0A2641_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D4FF745C_F1FE_40DF_8724_4E0B79EC9814_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D6AB068F_682D_4EA0_BC56_7AAB2DE2E3C6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D7E76173_65E0_4D7E_A8EB_82DFAB1734EC_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_DE8EFA15_92E2_44A7_8031_0236F10D5590_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_DF577096_2FDD_46FD_AAD7_EF533FA70816_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_DFDDD5EA_589A_44B6_8246_62FED39FC67B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E34E9297_9BDC_4941_9D53_14A4990D3D6E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E4264B78_1091_4984_9207_7DADBB776ED8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$B$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E57881A8_0D84_4F7B_87B1_E7F726275DE9_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E5AE1AF4_AA65_4D3B_8839_BC18F0A5A7CE_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E67DB7C0_6511_432F_AD00_B500B4C0EB44_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E99FDCC4_6529_4843_854F_B20C17EF5D22_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E9AC65B7_9335_4B70_9CF5_D8971E692BDC_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_EDE9F2F2_D4CF_4C35_8032_5518B9791E4D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F31B60E6_E47C_465B_A97B_BD1F1961EA70_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$U$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F3A65DAD_4561_4316_98D4_275DF7CCF98B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F959C4DA_2380_4EDD_8575_F29975D7BE99_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F9F3AD35_840C_4D5F_8521_98D49A862FA6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_FD9155FD_7C35_4C34_815E_F77841DCF018_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="146">
   <si>
     <t xml:space="preserve">№ п/п</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t xml:space="preserve">Организация-грантополучатель</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Последняя дата сверки</t>
   </si>
   <si>
     <t xml:space="preserve">Фасад здания, %</t>
@@ -988,34 +985,33 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="29.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="20.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="26.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="18" style="0" width="69.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="29.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="20.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="26.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="17" style="0" width="69.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,18 +1063,15 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1">
-    <filterColumn colId="13">
+  <autoFilter ref="A1:P1">
+    <filterColumn colId="12">
       <filters>
         <filter val="73,21%"/>
         <filter val="73,65%"/>
@@ -1121,7 +1114,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30"/>
@@ -1143,28 +1136,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1172,13 +1165,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="E2" s="8" t="n">
         <v>0.8</v>
@@ -1226,13 +1219,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>0.94</v>
@@ -1280,13 +1273,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>1</v>
@@ -1334,13 +1327,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="E5" s="8" t="n">
         <v>0.32</v>
@@ -1388,13 +1381,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="8" t="n">
         <v>0.55</v>
@@ -1442,13 +1435,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="E7" s="8" t="n">
         <v>1</v>
@@ -1496,13 +1489,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="8" t="n">
         <v>0.7</v>
@@ -1550,13 +1543,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="E9" s="8" t="n">
         <v>0.6</v>
@@ -1604,13 +1597,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="E10" s="8" t="n">
         <v>0.52</v>
@@ -1658,13 +1651,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="8" t="n">
         <v>0.98</v>
@@ -1712,13 +1705,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="E12" s="8" t="n">
         <v>0.75</v>
@@ -1766,13 +1759,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="8" t="n">
         <v>0.3375</v>
@@ -1820,13 +1813,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="E14" s="8" t="n">
         <v>1</v>
@@ -1874,13 +1867,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="E15" s="8" t="n">
         <v>0.6667</v>
@@ -1928,13 +1921,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="E16" s="8" t="n">
         <v>0.425</v>
@@ -1982,13 +1975,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="E17" s="8" t="n">
         <v>0.995</v>
@@ -2036,13 +2029,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="E18" s="8" t="n">
         <v>0.95</v>
@@ -2090,13 +2083,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="8" t="n">
         <v>1</v>
@@ -2144,13 +2137,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="E20" s="8" t="n">
         <v>0.65</v>
@@ -2198,13 +2191,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="8" t="n">
         <v>0.75</v>
@@ -2252,13 +2245,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="E22" s="8" t="n">
         <v>0.49</v>
@@ -2306,13 +2299,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="E23" s="8" t="n">
         <v>1</v>
@@ -2360,13 +2353,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="E24" s="8" t="n">
         <v>0.975</v>
@@ -2414,13 +2407,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="E25" s="8" t="n">
         <v>0.92</v>
@@ -2429,10 +2422,10 @@
         <v>0.95</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J25" s="8" t="n">
         <v>0.975</v>
@@ -2468,13 +2461,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" s="8" t="n">
         <v>0.39</v>
@@ -2522,13 +2515,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="E27" s="8" t="n">
         <v>0.775</v>
@@ -2576,13 +2569,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" s="8" t="n">
         <v>1</v>
@@ -2630,13 +2623,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29" s="8" t="n">
         <v>1</v>
@@ -2684,13 +2677,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="E30" s="8" t="n">
         <v>0.99</v>
@@ -2738,13 +2731,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="E31" s="8" t="n">
         <v>1</v>
@@ -2792,13 +2785,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E32" s="8" t="n">
         <v>0.9</v>
@@ -2846,13 +2839,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E33" s="8" t="n">
         <v>1</v>
@@ -2900,13 +2893,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="E34" s="8" t="n">
         <v>0.95</v>
@@ -2954,13 +2947,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="E35" s="8" t="n">
         <v>0.9</v>
@@ -3008,13 +3001,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E36" s="8" t="n">
         <v>1</v>
@@ -3062,13 +3055,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E37" s="8" t="n">
         <v>0.99</v>
@@ -3116,13 +3109,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="E38" s="8" t="n">
         <v>0.94</v>
@@ -3170,13 +3163,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="E39" s="8" t="n">
         <v>1</v>
@@ -3224,13 +3217,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>94</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>95</v>
       </c>
       <c r="E40" s="8" t="n">
         <v>0.34</v>
@@ -3278,13 +3271,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="E41" s="8" t="n">
         <v>0.93</v>
@@ -3332,13 +3325,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="E42" s="8" t="n">
         <v>1</v>
@@ -3386,13 +3379,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="E43" s="8" t="n">
         <v>0.68</v>
@@ -3440,13 +3433,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E44" s="8" t="n">
         <v>0.875</v>
@@ -3494,13 +3487,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="E45" s="8" t="n">
         <v>0.94</v>
@@ -3548,13 +3541,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="E46" s="8" t="n">
         <v>0.975</v>
@@ -3602,13 +3595,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="E47" s="8" t="n">
         <v>1</v>
@@ -3656,13 +3649,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="E48" s="8" t="n">
         <v>0.775</v>
@@ -3710,13 +3703,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="E49" s="8" t="n">
         <v>0.98</v>
@@ -3764,13 +3757,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="E50" s="8" t="n">
         <v>0.75</v>
@@ -3818,13 +3811,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E51" s="8" t="n">
         <v>0.72</v>
@@ -3872,13 +3865,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="E52" s="8" t="n">
         <v>0.89</v>
@@ -3926,13 +3919,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E53" s="8" t="n">
         <v>0.84</v>
@@ -3980,13 +3973,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="E54" s="8" t="n">
         <v>1</v>
@@ -4034,13 +4027,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E55" s="8" t="n">
         <v>0.72</v>
@@ -4088,13 +4081,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E56" s="8" t="n">
         <v>0.8667</v>
@@ -4142,13 +4135,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E57" s="8" t="n">
         <v>0.9</v>
@@ -4196,13 +4189,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="E58" s="8" t="n">
         <v>0.88</v>
@@ -4250,13 +4243,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="E59" s="8" t="n">
         <v>0.99</v>
@@ -4265,10 +4258,10 @@
         <v>0.98</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J59" s="8" t="n">
         <v>1</v>
@@ -4304,13 +4297,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E60" s="8" t="n">
         <v>1</v>
@@ -4358,13 +4351,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="E61" s="8" t="n">
         <v>0.75</v>
@@ -4412,13 +4405,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E62" s="8" t="n">
         <v>0.66</v>
@@ -4466,13 +4459,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="D63" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="E63" s="8" t="n">
         <v>0.9</v>
@@ -4520,13 +4513,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="E64" s="8" t="n">
         <v>0.72</v>
@@ -4574,13 +4567,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E65" s="8" t="n">
         <v>1</v>
@@ -4628,13 +4621,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="E66" s="8" t="n">
         <v>0.875</v>
@@ -4682,13 +4675,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E67" s="8" t="n">
         <v>0.9875</v>
@@ -4736,13 +4729,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E68" s="8" t="n">
         <v>1</v>
@@ -4790,13 +4783,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E69" s="8" t="n">
         <v>1</v>
@@ -4844,13 +4837,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="E70" s="8" t="n">
         <v>0.9875</v>
@@ -4898,13 +4891,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E71" s="8" t="n">
         <v>1</v>

--- a/public/excel/readinessMap.xlsx
+++ b/public/excel/readinessMap.xlsx
@@ -12,117 +12,117 @@
     <sheet name="Сверки" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Сверки!$A$1:$M$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0346BCA5_B175_4D13_887C_D73DCA92E787_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_061ACB4E_612A_4F3E_94B6_CF39BCD74EBD_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_090C65C4_24BF_46E8_BF84_48A3BC3F02E1_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0B2183EE_CFC4_4D2B_AE11_2072144746D0_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0BB14B2C_C6A0_4920_80B9_B3F054902D66_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_0DCBF660_7A13_474C_A34B_40E0D1E207EA_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_11AD3C54_A82A_444B_8BB0_1E4CCF5D0EE7_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_147D357F_7BE6_449D_B522_0886010457F6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_14B88312_E390_4BA8_9660_4006A170401E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_17273904_B293_4D90_9407_E56D079C3BE8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_1E5AC74E_15A0_4BCA_9F0D_9B53A60DBAE1_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_207B540B_5FC1_4C88_A8EC_DD9010BEA503_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_208D0C5A_5F63_4DD5_99BE_0172E0998833_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_22C38152_9FB7_4703_8EFC_7A2423EC4961_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_24F98F4D_FF73_4018_84C5_CBEAAB1DFA59_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_29370862_D448_40C3_9DC2_16A63BDC0F9A_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_29CE4207_47FB_40E8_A3EC_0A9268EB6DC4_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_2DAB3938_2923_4717_8EAB_A4E5B8342822_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_352D0C52_886A_4FA8_B958_C73FCDED3D8E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0346BCA5_B175_4D13_887C_D73DCA92E787_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_061ACB4E_612A_4F3E_94B6_CF39BCD74EBD_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_090C65C4_24BF_46E8_BF84_48A3BC3F02E1_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0B2183EE_CFC4_4D2B_AE11_2072144746D0_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0BB14B2C_C6A0_4920_80B9_B3F054902D66_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_0DCBF660_7A13_474C_A34B_40E0D1E207EA_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_11AD3C54_A82A_444B_8BB0_1E4CCF5D0EE7_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_147D357F_7BE6_449D_B522_0886010457F6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_14B88312_E390_4BA8_9660_4006A170401E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_17273904_B293_4D90_9407_E56D079C3BE8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_1E5AC74E_15A0_4BCA_9F0D_9B53A60DBAE1_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_207B540B_5FC1_4C88_A8EC_DD9010BEA503_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_208D0C5A_5F63_4DD5_99BE_0172E0998833_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_22C38152_9FB7_4703_8EFC_7A2423EC4961_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_24F98F4D_FF73_4018_84C5_CBEAAB1DFA59_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_29370862_D448_40C3_9DC2_16A63BDC0F9A_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_29CE4207_47FB_40E8_A3EC_0A9268EB6DC4_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_2DAB3938_2923_4717_8EAB_A4E5B8342822_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_352D0C52_886A_4FA8_B958_C73FCDED3D8E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_3E9C076B_CBC1_45EF_A930_313200B20DB9_.wvu.FilterData" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_475EBC02_2BE2_495D_9928_41BC070B80C3_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_49B218D9_91F4_4DD9_A79B_7456537AA425_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_4B8F43FD_6B06_4475_964E_FE6D9D8B56F0_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_4C7FDB2B_7CC7_4FDB_8EBE_D67B1D3E95E2_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_4D15348D_5D9F_42CA_B1FB_94D649511AF0_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_50B5193C_4EB4_4097_A645_0BB294B1A724_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_556C983B_DBAA_41A6_BD29_0ACC9E6B04D1_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_55F9A013_33BE_486B_96B1_FC1C2DF83E21_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_568662B3_0F32_452A_BA8A_86E28FE9270B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_580D0090_FD31_4125_9227_BE75B224C6D6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_61A13612_B1C7_44E4_B8E1_D619F6E860EA_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_628DC071_11FE_4913_82AD_D476FF51EC0B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_63E5315F_3F57_45D6_98FC_6374DA9D4BA4_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_64370389_030D_4092_B33B_B1177B815FE8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6525C8E9_BFCD_4B72_8428_95555DCE420E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_66EAB00C_65A6_4D75_A346_2C585263446A_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6713E5A5_F42C_4070_B548_3B747E4F80A2_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_69BA5E49_F241_4B39_8B2D_4CF2291572CD_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6A0818E3_5076_495D_AFA1_836DCB237A62_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6C842B64_0FB4_4DE0_8595_304247D0E1AF_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_6EB7D9BC_DC96_4C7F_B652_9ADC846D6264_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_71CFEFF6_1743_4517_9C6B_3D818AE9C883_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_73F63C98_F861_40D4_A215_48FDCD33439B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_475EBC02_2BE2_495D_9928_41BC070B80C3_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_49B218D9_91F4_4DD9_A79B_7456537AA425_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_4B8F43FD_6B06_4475_964E_FE6D9D8B56F0_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_4C7FDB2B_7CC7_4FDB_8EBE_D67B1D3E95E2_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_4D15348D_5D9F_42CA_B1FB_94D649511AF0_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_50B5193C_4EB4_4097_A645_0BB294B1A724_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_556C983B_DBAA_41A6_BD29_0ACC9E6B04D1_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_55F9A013_33BE_486B_96B1_FC1C2DF83E21_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_568662B3_0F32_452A_BA8A_86E28FE9270B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_580D0090_FD31_4125_9227_BE75B224C6D6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_61A13612_B1C7_44E4_B8E1_D619F6E860EA_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_628DC071_11FE_4913_82AD_D476FF51EC0B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_63E5315F_3F57_45D6_98FC_6374DA9D4BA4_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_64370389_030D_4092_B33B_B1177B815FE8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6525C8E9_BFCD_4B72_8428_95555DCE420E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_66EAB00C_65A6_4D75_A346_2C585263446A_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6713E5A5_F42C_4070_B548_3B747E4F80A2_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_69BA5E49_F241_4B39_8B2D_4CF2291572CD_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6A0818E3_5076_495D_AFA1_836DCB237A62_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6C842B64_0FB4_4DE0_8595_304247D0E1AF_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_6EB7D9BC_DC96_4C7F_B652_9ADC846D6264_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_71CFEFF6_1743_4517_9C6B_3D818AE9C883_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_73F63C98_F861_40D4_A215_48FDCD33439B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_75772143_B78F_4D58_9063_EE121BCA56FE_.wvu.FilterData" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_758BF1A7_EDEE_49E8_9E97_7FFAF165AE4F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_7664B929_8C2C_418E_B247_2A132DFEF754_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_793B310E_B986_4A01_AD49_764E6C30261B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_8528A41B_65BF_469E_AA2A_AC87AF6776AE_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_89C28C6D_BA4B_4C3F_AB30_5A0BDFC437DB_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_758BF1A7_EDEE_49E8_9E97_7FFAF165AE4F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_7664B929_8C2C_418E_B247_2A132DFEF754_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_793B310E_B986_4A01_AD49_764E6C30261B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_8528A41B_65BF_469E_AA2A_AC87AF6776AE_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_89C28C6D_BA4B_4C3F_AB30_5A0BDFC437DB_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$R$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_90D0AC51_DA76_4698_A08E_967B11124F0B_.wvu.FilterData" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_935946F9_E992_4939_95DC_0BB25A9D51EC_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9362496D_6BC9_4F1D_8099_416F181C1B51_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_941D30DD_37FA_4077_AD4A_4035AA0FB587_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_96B769B1_32F8_41D5_B56E_0217BD3C5FC6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9776FBF9_5863_424D_B1C9_394DADF68A55_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_97C64322_9802_4681_B4F6_86AD8126D4C7_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9D99D1EB_E3BF_4BFB_AE11_079B7638D26F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_9EACC501_4F7A_4995_83C1_EF29CEAC03A2_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A1921CB2_28D8_423D_878F_536F61FE811F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A2FD6A00_89DF_4F46_9287_E896E7CA9CD6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A4663326_BEF3_4DC3_B0BB_B3524EDA2FFF_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A84A6F32_8B6D_4177_9B69_79B89AA061C8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A94A1BCC_66F0_4948_BEBA_DD737C4F208D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AA682BAA_6FEA_4DB1_A7DE_FB4829AE0E74_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AE3A75DD_EA29_44B1_A423_4919C2823755_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_AF66A252_E7B8_420D_8CFD_61491239F3DD_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B09C71C6_7E49_4594_B93D_30B85191442B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B36B4583_207B_49A7_832E_0338FFE2F4C5_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B3B263E6_62A0_40FA_B684_FF3DF5C44A30_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B4DA0020_0A7D_48DE_9C88_90C521FFC30C_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B683867B_3B48_4D6F_9EA9_052ACAE6C475_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B71AEA7D_DEC1_43C9_9DF2_928453EFF7B8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B8A8EF14_C8EB_4447_B73F_D2FAC3E5DA0A_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_B9E2237D_895A_4A9A_910E_7CC08DA26C20_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_BC01216A_3E79_43E5_A63F_F5B1D7C0F71C_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_BD22F38B_1771_4A5A_9712_0E709EE05A32_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_BDB05E6A_FD43_46B4_B2E6_CDCF77019A93_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_BDCA31BB_2E2B_432C_9516_4AD0D8C73B64_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C14227B2_736D_4A3D_8C76_BB2FD32DF21D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C1583340_D48B_4C94_BDDC_95A42EFB4227_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C23A10CA_61AB_4980_9FD8_BC403487BCB4_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C2A95D58_FE7E_49D8_A018_58A7B81373B9_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C4235601_3F72_4C6D_B251_CDE76DCD0FE7_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_935946F9_E992_4939_95DC_0BB25A9D51EC_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9362496D_6BC9_4F1D_8099_416F181C1B51_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_941D30DD_37FA_4077_AD4A_4035AA0FB587_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_96B769B1_32F8_41D5_B56E_0217BD3C5FC6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9776FBF9_5863_424D_B1C9_394DADF68A55_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_97C64322_9802_4681_B4F6_86AD8126D4C7_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9D99D1EB_E3BF_4BFB_AE11_079B7638D26F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_9EACC501_4F7A_4995_83C1_EF29CEAC03A2_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A1921CB2_28D8_423D_878F_536F61FE811F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A2FD6A00_89DF_4F46_9287_E896E7CA9CD6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A4663326_BEF3_4DC3_B0BB_B3524EDA2FFF_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A84A6F32_8B6D_4177_9B69_79B89AA061C8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A94A1BCC_66F0_4948_BEBA_DD737C4F208D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AA682BAA_6FEA_4DB1_A7DE_FB4829AE0E74_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AE3A75DD_EA29_44B1_A423_4919C2823755_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_AF66A252_E7B8_420D_8CFD_61491239F3DD_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B09C71C6_7E49_4594_B93D_30B85191442B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B36B4583_207B_49A7_832E_0338FFE2F4C5_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B3B263E6_62A0_40FA_B684_FF3DF5C44A30_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B4DA0020_0A7D_48DE_9C88_90C521FFC30C_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B683867B_3B48_4D6F_9EA9_052ACAE6C475_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B71AEA7D_DEC1_43C9_9DF2_928453EFF7B8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B8A8EF14_C8EB_4447_B73F_D2FAC3E5DA0A_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_B9E2237D_895A_4A9A_910E_7CC08DA26C20_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_BC01216A_3E79_43E5_A63F_F5B1D7C0F71C_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_BD22F38B_1771_4A5A_9712_0E709EE05A32_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_BDB05E6A_FD43_46B4_B2E6_CDCF77019A93_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_BDCA31BB_2E2B_432C_9516_4AD0D8C73B64_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C14227B2_736D_4A3D_8C76_BB2FD32DF21D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C1583340_D48B_4C94_BDDC_95A42EFB4227_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C23A10CA_61AB_4980_9FD8_BC403487BCB4_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C2A95D58_FE7E_49D8_A018_58A7B81373B9_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C4235601_3F72_4C6D_B251_CDE76DCD0FE7_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_C48C75C2_9F21_4230_90D0_06D514FD1745_.wvu.FilterData" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C7F8CB35_906C_4AAB_9BAE_F61BC378A18F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_C9A3C411_9C87_4D76_82FF_18F5CABEDC5D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_CA2D55A5_0FB4_4A7F_8F5E_EA55BD06C361_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_CB5BFEA6_7D16_4D20_9724_6C2E603E888B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_CDE348C3_F605_4271_950C_B5BA7DFD517B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D463594F_9416_42BB_A0EC_7AE28E0A2641_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D4FF745C_F1FE_40DF_8724_4E0B79EC9814_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D6AB068F_682D_4EA0_BC56_7AAB2DE2E3C6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_D7E76173_65E0_4D7E_A8EB_82DFAB1734EC_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_DE8EFA15_92E2_44A7_8031_0236F10D5590_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_DF577096_2FDD_46FD_AAD7_EF533FA70816_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_DFDDD5EA_589A_44B6_8246_62FED39FC67B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E34E9297_9BDC_4941_9D53_14A4990D3D6E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E4264B78_1091_4984_9207_7DADBB776ED8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$B$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E57881A8_0D84_4F7B_87B1_E7F726275DE9_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E5AE1AF4_AA65_4D3B_8839_BC18F0A5A7CE_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E67DB7C0_6511_432F_AD00_B500B4C0EB44_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E99FDCC4_6529_4843_854F_B20C17EF5D22_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E9AC65B7_9335_4B70_9CF5_D8971E692BDC_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_EDE9F2F2_D4CF_4C35_8032_5518B9791E4D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F31B60E6_E47C_465B_A97B_BD1F1961EA70_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$U$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F3A65DAD_4561_4316_98D4_275DF7CCF98B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F959C4DA_2380_4EDD_8575_F29975D7BE99_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_F9F3AD35_840C_4D5F_8521_98D49A862FA6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_FD9155FD_7C35_4C34_815E_F77841DCF018_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$P$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C7F8CB35_906C_4AAB_9BAE_F61BC378A18F_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_C9A3C411_9C87_4D76_82FF_18F5CABEDC5D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_CA2D55A5_0FB4_4A7F_8F5E_EA55BD06C361_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_CB5BFEA6_7D16_4D20_9724_6C2E603E888B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_CDE348C3_F605_4271_950C_B5BA7DFD517B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$R$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D463594F_9416_42BB_A0EC_7AE28E0A2641_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D4FF745C_F1FE_40DF_8724_4E0B79EC9814_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D6AB068F_682D_4EA0_BC56_7AAB2DE2E3C6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_D7E76173_65E0_4D7E_A8EB_82DFAB1734EC_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_DE8EFA15_92E2_44A7_8031_0236F10D5590_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_DF577096_2FDD_46FD_AAD7_EF533FA70816_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_DFDDD5EA_589A_44B6_8246_62FED39FC67B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E34E9297_9BDC_4941_9D53_14A4990D3D6E_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E4264B78_1091_4984_9207_7DADBB776ED8_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$B$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E57881A8_0D84_4F7B_87B1_E7F726275DE9_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E5AE1AF4_AA65_4D3B_8839_BC18F0A5A7CE_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E67DB7C0_6511_432F_AD00_B500B4C0EB44_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E99FDCC4_6529_4843_854F_B20C17EF5D22_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E9AC65B7_9335_4B70_9CF5_D8971E692BDC_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_EDE9F2F2_D4CF_4C35_8032_5518B9791E4D_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F31B60E6_E47C_465B_A97B_BD1F1961EA70_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$V$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F3A65DAD_4561_4316_98D4_275DF7CCF98B_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F959C4DA_2380_4EDD_8575_F29975D7BE99_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_F9F3AD35_840C_4D5F_8521_98D49A862FA6_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_FD9155FD_7C35_4C34_815E_F77841DCF018_.wvu.FilterData" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -985,33 +985,34 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="29.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="20.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="26.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="17" style="0" width="69.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="29.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="20.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="26.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="18" style="0" width="69.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1027,51 +1028,52 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1">
-    <filterColumn colId="12">
+  <autoFilter ref="A1:Q1">
+    <filterColumn colId="13">
       <filters>
         <filter val="73,21%"/>
         <filter val="73,65%"/>
@@ -1114,7 +1116,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30"/>

--- a/public/excel/readinessMap.xlsx
+++ b/public/excel/readinessMap.xlsx
@@ -10,6 +10,7 @@
   <sheets>
     <sheet name="Ремонтные работы" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Сверки" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Оборудование" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Ремонтные работы'!$A$1:$Q$1</definedName>
@@ -134,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="161">
   <si>
     <t xml:space="preserve">№ п/п</t>
   </si>
@@ -576,18 +577,131 @@
   </si>
   <si>
     <t xml:space="preserve">Филиал ФГБОУ ВО "Петербургский государственный университет путей сообщения Императора Александра I" в г. Ярославле</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество зон
+ под виды работ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общий % укомплектованности мебелью</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общий % укомплектованности ПО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общий % укомплектованности оборудованием</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общий % введения в эксплуатацию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Средний % укомплектованности мебелью</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Средний % укомплектованности ПО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Средний % укомплектованности оборудованием</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% наличия мебели по </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ИЛ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% наличия ПО по </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ИЛ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">% наличия оборудования по </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ИЛ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ближайшая дата завершения комплектования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Самая поздняя дата завершения комплектования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Средняя дата завершения комплектования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Примечания / комментарии</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
     <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -625,8 +739,17 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -654,7 +777,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6B8AF"/>
-        <bgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
     <fill>
@@ -667,6 +790,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
   </fills>
@@ -732,7 +861,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -831,6 +960,14 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -947,9 +1084,9 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFE6B8AF"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFE6B8AF"/>
+      <rgbColor rgb="FFFFE599"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -992,10 +1129,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30"/>
@@ -1116,7 +1253,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30"/>
@@ -14238,4 +14375,113 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Z1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="36.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="29.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="9" style="0" width="18.41"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/public/excel/readinessMap.xlsx
+++ b/public/excel/readinessMap.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ремонтные работы" sheetId="1" state="visible" r:id="rId2"/>
@@ -1124,7 +1124,7 @@
   </sheetPr>
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
@@ -1132,7 +1132,7 @@
       <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30"/>
@@ -1253,7 +1253,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30"/>
@@ -14384,13 +14384,13 @@
   </sheetPr>
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topRight" activeCell="V1" activeCellId="0" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.83"/>
@@ -14400,7 +14400,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="36.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="29.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="9" style="0" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="9" style="0" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="15" style="0" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="21" min="20" style="0" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="18.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/public/excel/readinessMap.xlsx
+++ b/public/excel/readinessMap.xlsx
@@ -1132,7 +1132,7 @@
       <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30"/>
@@ -1253,7 +1253,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30"/>
@@ -14387,20 +14387,21 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="V1" activeCellId="0" sqref="V1"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="36.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="29.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="9" style="0" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="36.38"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="29.99"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="29.1"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="10" style="0" width="18.41"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="15" style="0" width="18.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="18.41"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="21" min="20" style="0" width="18.41"/>
